--- a/server/LISTAS/mi/SOPORTE REPISA ZINCADO DISMAY.xlsx
+++ b/server/LISTAS/mi/SOPORTE REPISA ZINCADO DISMAY.xlsx
@@ -738,7 +738,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="n">
-        <v>45289</v>
+        <v>45306</v>
       </c>
       <c r="E1" s="7" t="n"/>
     </row>

--- a/server/LISTAS/mi/SOPORTE REPISA ZINCADO DISMAY.xlsx
+++ b/server/LISTAS/mi/SOPORTE REPISA ZINCADO DISMAY.xlsx
@@ -738,7 +738,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="E1" s="7" t="n"/>
     </row>

--- a/server/LISTAS/mi/SOPORTE REPISA ZINCADO DISMAY.xlsx
+++ b/server/LISTAS/mi/SOPORTE REPISA ZINCADO DISMAY.xlsx
@@ -738,7 +738,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="E1" s="7" t="n"/>
     </row>
@@ -821,7 +821,7 @@
       </c>
       <c r="C33" s="20" t="n"/>
       <c r="D33" s="12" t="n">
-        <v>38</v>
+        <v>75.315</v>
       </c>
       <c r="E33" s="4" t="n"/>
       <c r="G33" s="14" t="n"/>
@@ -839,7 +839,7 @@
       </c>
       <c r="C34" s="20" t="n"/>
       <c r="D34" s="13" t="n">
-        <v>57</v>
+        <v>112.973</v>
       </c>
       <c r="E34" s="4" t="n"/>
       <c r="F34" s="14" t="n"/>
@@ -862,14 +862,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/SOPORTE REPISA ZINCADO DISMAY.xlsx
+++ b/server/LISTAS/mi/SOPORTE REPISA ZINCADO DISMAY.xlsx
@@ -738,7 +738,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="E1" s="7" t="n"/>
     </row>

--- a/server/LISTAS/mi/SOPORTE REPISA ZINCADO DISMAY.xlsx
+++ b/server/LISTAS/mi/SOPORTE REPISA ZINCADO DISMAY.xlsx
@@ -738,7 +738,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="n">
-        <v>45310</v>
+        <v>45311</v>
       </c>
       <c r="E1" s="7" t="n"/>
     </row>
@@ -821,7 +821,7 @@
       </c>
       <c r="C33" s="20" t="n"/>
       <c r="D33" s="12" t="n">
-        <v>75.315</v>
+        <v>38</v>
       </c>
       <c r="E33" s="4" t="n"/>
       <c r="G33" s="14" t="n"/>
@@ -839,7 +839,7 @@
       </c>
       <c r="C34" s="20" t="n"/>
       <c r="D34" s="13" t="n">
-        <v>112.973</v>
+        <v>57</v>
       </c>
       <c r="E34" s="4" t="n"/>
       <c r="F34" s="14" t="n"/>
@@ -862,14 +862,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A9:D9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/SOPORTE REPISA ZINCADO DISMAY.xlsx
+++ b/server/LISTAS/mi/SOPORTE REPISA ZINCADO DISMAY.xlsx
@@ -738,7 +738,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="E1" s="7" t="n"/>
     </row>
@@ -862,14 +862,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/SOPORTE REPISA ZINCADO DISMAY.xlsx
+++ b/server/LISTAS/mi/SOPORTE REPISA ZINCADO DISMAY.xlsx
@@ -738,7 +738,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="E1" s="7" t="n"/>
     </row>
@@ -862,14 +862,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A9:D9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/SOPORTE REPISA ZINCADO DISMAY.xlsx
+++ b/server/LISTAS/mi/SOPORTE REPISA ZINCADO DISMAY.xlsx
@@ -738,7 +738,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E1" s="7" t="n"/>
     </row>
@@ -862,14 +862,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/SOPORTE REPISA ZINCADO DISMAY.xlsx
+++ b/server/LISTAS/mi/SOPORTE REPISA ZINCADO DISMAY.xlsx
@@ -738,7 +738,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
       <c r="E1" s="7" t="n"/>
     </row>
@@ -821,7 +821,7 @@
       </c>
       <c r="C33" s="20" t="n"/>
       <c r="D33" s="12" t="n">
-        <v>38</v>
+        <v>82.093</v>
       </c>
       <c r="E33" s="4" t="n"/>
       <c r="G33" s="14" t="n"/>
@@ -839,7 +839,7 @@
       </c>
       <c r="C34" s="20" t="n"/>
       <c r="D34" s="13" t="n">
-        <v>57</v>
+        <v>123.141</v>
       </c>
       <c r="E34" s="4" t="n"/>
       <c r="F34" s="14" t="n"/>
@@ -862,14 +862,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A9:D9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
